--- a/docs/テーブル仕様.xlsx
+++ b/docs/テーブル仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D32765F-8F51-47CB-8386-583004ACE297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EACE8E-7DE8-4B81-B3F5-3C6CF1344D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="360" windowWidth="18915" windowHeight="14625" activeTab="3" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
   </bookViews>
   <sheets>
     <sheet name="DB定義" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="244">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -1051,6 +1051,21 @@
   </si>
   <si>
     <t>99998</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NOTE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>128</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1568,8 +1583,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7A424B-431B-4665-B0EB-34E65E79D84A}" name="テーブル1" displayName="テーブル1" ref="A1:K74" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K74" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7A424B-431B-4665-B0EB-34E65E79D84A}" name="テーブル1" displayName="テーブル1" ref="A1:K75" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K75" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A1F5D4FD-5A7B-45B6-8985-049D58F35E49}" name="#" dataDxfId="10">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
@@ -1889,11 +1904,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31:E35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1981,7 +1996,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A74" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A75" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2453,7 +2468,7 @@
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2462,22 +2477,22 @@
       <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="D19" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
@@ -2491,10 +2506,10 @@
         <v>39</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -2513,26 +2528,24 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
         <v>1</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2549,24 +2562,22 @@
         <v>59</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="6">
         <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -2578,13 +2589,13 @@
         <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6">
@@ -2613,20 +2624,24 @@
         <v>64</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
       <c r="H24" s="6">
         <v>1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -2641,10 +2656,10 @@
         <v>64</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2669,10 +2684,10 @@
         <v>64</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2697,10 +2712,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2725,10 +2740,10 @@
         <v>64</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2736,12 +2751,10 @@
         <v>1</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
@@ -2755,10 +2768,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2766,10 +2779,12 @@
         <v>1</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="K29" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
@@ -2783,10 +2798,10 @@
         <v>64</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2805,30 +2820,26 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6">
         <v>1</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -2843,19 +2854,23 @@
         <v>75</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
       <c r="I32" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="K32" s="6"/>
     </row>
@@ -2871,23 +2886,21 @@
         <v>75</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6">
-        <v>1</v>
-      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
@@ -2901,10 +2914,10 @@
         <v>75</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2912,10 +2925,12 @@
         <v>1</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="K34" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
@@ -2929,10 +2944,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2951,30 +2966,26 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="6">
         <v>1</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -2989,19 +3000,23 @@
         <v>80</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
       <c r="I37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="K37" s="6"/>
     </row>
@@ -3017,23 +3032,21 @@
         <v>80</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6">
-        <v>1</v>
-      </c>
+      <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
@@ -3047,10 +3060,10 @@
         <v>80</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -3058,10 +3071,12 @@
         <v>1</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="K39" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
@@ -3075,10 +3090,10 @@
         <v>80</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -3097,28 +3112,24 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6">
+        <v>1</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -3135,23 +3146,25 @@
         <v>83</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="H42" s="6" t="s">
         <v>86</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="J42" s="6"/>
-      <c r="K42" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
@@ -3162,13 +3175,13 @@
         <v>82</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -3176,12 +3189,12 @@
         <v>86</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
@@ -3195,10 +3208,10 @@
         <v>91</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -3211,9 +3224,7 @@
       <c r="J44" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
@@ -3224,13 +3235,13 @@
         <v>82</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3238,10 +3249,14 @@
         <v>86</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
@@ -3255,10 +3270,10 @@
         <v>83</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3271,21 +3286,33 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="B47" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
@@ -3719,17 +3746,33 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="3">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="6" manualBreakCount="6">
     <brk id="8" max="16383" man="1"/>
-    <brk id="20" max="16383" man="1"/>
-    <brk id="30" max="16383" man="1"/>
-    <brk id="35" max="16383" man="1"/>
-    <brk id="40" max="16383" man="1"/>
-    <brk id="46" max="16383" man="1"/>
+    <brk id="21" max="16383" man="1"/>
+    <brk id="31" max="16383" man="1"/>
+    <brk id="36" max="16383" man="1"/>
+    <brk id="41" max="16383" man="1"/>
+    <brk id="47" max="16383" man="1"/>
   </rowBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -6014,7 +6057,7 @@
         <v>125</v>
       </c>
       <c r="D99" s="11" t="str">
-        <f t="shared" ref="D99:D130" si="7">TEXT(C99,"aaa")</f>
+        <f t="shared" ref="D99:D125" si="7">TEXT(C99,"aaa")</f>
         <v>木</v>
       </c>
       <c r="E99" s="10">
@@ -7584,9 +7627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3364AE59-5C33-4F81-9B97-B751BCFB677F}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/docs/テーブル仕様.xlsx
+++ b/docs/テーブル仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EACE8E-7DE8-4B81-B3F5-3C6CF1344D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D84DEB0-D703-4991-82EF-74DA7B66FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
+    <workbookView xWindow="330" yWindow="540" windowWidth="21690" windowHeight="14625" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
   </bookViews>
   <sheets>
     <sheet name="DB定義" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">COMPANY_MT!$B$2:$F$94</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DIVISION_MT!$B$2:$F$125</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="248">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -1066,6 +1077,34 @@
   </si>
   <si>
     <t>128</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ情報履歴</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>USER_DATA_HIST</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザID情報履歴ID</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SEQ_USER_DATA_HIST_ID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1583,8 +1622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7A424B-431B-4665-B0EB-34E65E79D84A}" name="テーブル1" displayName="テーブル1" ref="A1:K75" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K75" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7A424B-431B-4665-B0EB-34E65E79D84A}" name="テーブル1" displayName="テーブル1" ref="A1:K76" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K76" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A1F5D4FD-5A7B-45B6-8985-049D58F35E49}" name="#" dataDxfId="10">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
@@ -1904,11 +1943,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1996,7 +2035,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A75" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A76" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3319,30 +3358,58 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>48</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
@@ -3351,15 +3418,29 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -3367,15 +3448,29 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -3383,15 +3478,29 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -3399,15 +3508,27 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="6"/>
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -3415,15 +3536,27 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="6"/>
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -3431,15 +3564,27 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="6"/>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -3762,17 +3907,34 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="6" manualBreakCount="6">
+  <rowBreaks count="7" manualBreakCount="7">
     <brk id="8" max="16383" man="1"/>
     <brk id="21" max="16383" man="1"/>
     <brk id="31" max="16383" man="1"/>
     <brk id="36" max="16383" man="1"/>
     <brk id="41" max="16383" man="1"/>
     <brk id="47" max="16383" man="1"/>
+    <brk id="55" max="16383" man="1"/>
   </rowBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/docs/テーブル仕様.xlsx
+++ b/docs/テーブル仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D84DEB0-D703-4991-82EF-74DA7B66FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA2A09B-C6E1-4586-A1C3-5D4E328B05C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="540" windowWidth="21690" windowHeight="14625" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
   </bookViews>
   <sheets>
     <sheet name="DB定義" sheetId="1" r:id="rId1"/>
@@ -23,28 +23,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">COMPANY_MT!$B$2:$F$94</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DIVISION_MT!$B$2:$F$125</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="250">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -396,16 +385,6 @@
     <t>UPDATE_DATE</t>
   </si>
   <si>
-    <t>定時情報マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>テイジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ONTIME_MT</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1040,20 +1019,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>テスト用部署</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>テスト用企業</t>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キギョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2023/09/12 13:29:19</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1105,6 +1070,41 @@
   </si>
   <si>
     <t>SEQ_USER_DATA_HIST_ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定時マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト用企業1</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト用企業2</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト用部署1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト用部署2</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1622,8 +1622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7A424B-431B-4665-B0EB-34E65E79D84A}" name="テーブル1" displayName="テーブル1" ref="A1:K76" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K76" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7A424B-431B-4665-B0EB-34E65E79D84A}" name="テーブル1" displayName="テーブル1" ref="A1:K65" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K65" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A1F5D4FD-5A7B-45B6-8985-049D58F35E49}" name="#" dataDxfId="10">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
@@ -1943,11 +1943,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A76" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A65" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2517,10 +2517,10 @@
         <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2529,7 +2529,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -2595,16 +2595,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
@@ -2625,13 +2625,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>21</v>
@@ -2647,7 +2647,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" s="6"/>
     </row>
@@ -2657,10 +2657,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>23</v>
@@ -2679,7 +2679,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K24" s="6"/>
     </row>
@@ -2689,16 +2689,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -2717,16 +2717,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -2745,16 +2745,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -2773,16 +2773,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -2801,10 +2801,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>26</v>
@@ -2831,10 +2831,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>54</v>
@@ -2859,10 +2859,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>56</v>
@@ -2887,20 +2887,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32" s="6">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>18</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K32" s="6"/>
     </row>
@@ -2919,16 +2919,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2947,10 +2947,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>26</v>
@@ -2977,10 +2977,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>54</v>
@@ -3005,10 +3005,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>56</v>
@@ -3033,10 +3033,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>23</v>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" s="6">
         <v>1</v>
@@ -3055,7 +3055,7 @@
         <v>18</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K37" s="6"/>
     </row>
@@ -3065,16 +3065,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="E38" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -3093,10 +3093,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>26</v>
@@ -3123,10 +3123,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>54</v>
@@ -3151,10 +3151,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>56</v>
@@ -3179,25 +3179,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="G42" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>15</v>
@@ -3211,28 +3211,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="D43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -3241,27 +3241,27 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K44" s="6"/>
     </row>
@@ -3271,30 +3271,30 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -3303,10 +3303,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>54</v>
@@ -3317,10 +3317,10 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -3331,10 +3331,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>56</v>
@@ -3345,10 +3345,10 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -3359,16 +3359,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -3391,10 +3391,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>13</v>
@@ -3419,10 +3419,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>16</v>
@@ -3449,10 +3449,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>20</v>
@@ -3479,10 +3479,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>23</v>
@@ -3509,10 +3509,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>26</v>
@@ -3537,10 +3537,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>30</v>
@@ -3565,10 +3565,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>33</v>
@@ -3746,182 +3746,6 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A66" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A67" s="3">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A68" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A69" s="3">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A70" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A71" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A72" s="3">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A73" s="3">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A74" s="3">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A75" s="3">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A76" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3948,7 +3772,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A125"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3963,16 +3787,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B1" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>54</v>
@@ -3983,16 +3807,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>55</v>
@@ -4008,7 +3832,7 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" s="15" t="str">
         <f t="shared" ref="D3:D34" si="1">TEXT(C3,"aaa")</f>
@@ -4018,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4031,7 +3855,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4041,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4054,7 +3878,7 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4064,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4077,7 +3901,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4087,10 +3911,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4100,7 +3924,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4110,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4123,7 +3947,7 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4133,10 +3957,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4146,7 +3970,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4156,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4169,7 +3993,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4179,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4192,7 +4016,7 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4202,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4215,7 +4039,7 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4225,10 +4049,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4238,7 +4062,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D13" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4248,10 +4072,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4261,7 +4085,7 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4271,10 +4095,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4284,7 +4108,7 @@
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4294,10 +4118,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4307,7 +4131,7 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4317,10 +4141,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4330,7 +4154,7 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4340,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4353,7 +4177,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4363,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4376,7 +4200,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4386,10 +4210,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4399,7 +4223,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4409,10 +4233,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4422,7 +4246,7 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4432,10 +4256,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4445,7 +4269,7 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4455,10 +4279,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4468,7 +4292,7 @@
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4478,10 +4302,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4491,7 +4315,7 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4501,10 +4325,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4514,7 +4338,7 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D25" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4524,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4537,7 +4361,7 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4547,10 +4371,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4560,7 +4384,7 @@
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4570,10 +4394,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4583,7 +4407,7 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D28" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4593,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4606,7 +4430,7 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4616,10 +4440,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4629,7 +4453,7 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D30" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4639,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4652,7 +4476,7 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D31" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4662,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4675,7 +4499,7 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4685,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4698,7 +4522,7 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D33" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4708,10 +4532,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4721,7 +4545,7 @@
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D34" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4731,10 +4555,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4744,7 +4568,7 @@
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D35" s="15" t="str">
         <f t="shared" ref="D35:D66" si="3">TEXT(C35,"aaa")</f>
@@ -4754,10 +4578,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4767,7 +4591,7 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D36" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4777,10 +4601,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4790,7 +4614,7 @@
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D37" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4800,10 +4624,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4813,7 +4637,7 @@
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D38" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4823,10 +4647,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4836,7 +4660,7 @@
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D39" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4846,10 +4670,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4859,7 +4683,7 @@
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4869,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4882,7 +4706,7 @@
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4892,10 +4716,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4905,7 +4729,7 @@
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D42" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4915,10 +4739,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4928,7 +4752,7 @@
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4938,10 +4762,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4951,7 +4775,7 @@
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D44" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4961,10 +4785,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4974,7 +4798,7 @@
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D45" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4984,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4997,7 +4821,7 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D46" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5007,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5020,7 +4844,7 @@
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D47" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5030,10 +4854,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5043,7 +4867,7 @@
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D48" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5053,10 +4877,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5066,7 +4890,7 @@
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D49" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5076,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5089,7 +4913,7 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D50" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5099,10 +4923,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5112,7 +4936,7 @@
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D51" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5122,10 +4946,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5135,7 +4959,7 @@
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D52" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5145,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5158,7 +4982,7 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D53" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5168,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5181,7 +5005,7 @@
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5191,10 +5015,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5204,7 +5028,7 @@
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5214,10 +5038,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5227,7 +5051,7 @@
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5237,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5250,7 +5074,7 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5260,10 +5084,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5273,7 +5097,7 @@
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5283,10 +5107,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5296,7 +5120,7 @@
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5306,10 +5130,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5319,7 +5143,7 @@
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D60" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5329,10 +5153,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5342,7 +5166,7 @@
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D61" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5352,10 +5176,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5365,7 +5189,7 @@
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D62" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5375,10 +5199,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5388,7 +5212,7 @@
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D63" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5398,10 +5222,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5411,7 +5235,7 @@
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D64" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5421,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5434,7 +5258,7 @@
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D65" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5444,10 +5268,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5457,7 +5281,7 @@
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5467,10 +5291,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5480,7 +5304,7 @@
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" s="15" t="str">
         <f t="shared" ref="D67:D98" si="5">TEXT(C67,"aaa")</f>
@@ -5490,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5503,7 +5327,7 @@
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D68" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5513,10 +5337,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5526,7 +5350,7 @@
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D69" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5536,10 +5360,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5549,7 +5373,7 @@
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5559,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5572,7 +5396,7 @@
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5582,10 +5406,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5595,7 +5419,7 @@
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5605,10 +5429,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5618,7 +5442,7 @@
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D73" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5628,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5641,7 +5465,7 @@
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D74" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5651,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5664,7 +5488,7 @@
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D75" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5674,10 +5498,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5687,7 +5511,7 @@
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D76" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5697,10 +5521,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5710,7 +5534,7 @@
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D77" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5720,10 +5544,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5733,7 +5557,7 @@
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D78" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5743,10 +5567,10 @@
         <v>1</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5756,7 +5580,7 @@
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5766,10 +5590,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5779,7 +5603,7 @@
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5789,10 +5613,10 @@
         <v>0</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5802,7 +5626,7 @@
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D81" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5812,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5825,7 +5649,7 @@
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D82" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5835,10 +5659,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5848,7 +5672,7 @@
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D83" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5858,10 +5682,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5871,7 +5695,7 @@
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5881,10 +5705,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5894,7 +5718,7 @@
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D85" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5904,10 +5728,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5917,7 +5741,7 @@
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D86" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5927,10 +5751,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5940,7 +5764,7 @@
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D87" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5950,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5963,7 +5787,7 @@
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D88" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5973,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5986,7 +5810,7 @@
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D89" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5996,10 +5820,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -6009,7 +5833,7 @@
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D90" s="15" t="str">
         <f t="shared" si="5"/>
@@ -6019,10 +5843,10 @@
         <v>1</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -6032,7 +5856,7 @@
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D91" s="15" t="str">
         <f t="shared" si="5"/>
@@ -6042,10 +5866,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -6055,7 +5879,7 @@
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D92" s="15" t="str">
         <f t="shared" si="5"/>
@@ -6065,10 +5889,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -6078,7 +5902,7 @@
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D93" s="15" t="str">
         <f t="shared" si="5"/>
@@ -6088,10 +5912,10 @@
         <v>1</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -6101,7 +5925,7 @@
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D94" s="11" t="str">
         <f t="shared" si="5"/>
@@ -6111,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6124,7 +5948,7 @@
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D95" s="11" t="str">
         <f t="shared" si="5"/>
@@ -6134,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6147,7 +5971,7 @@
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D96" s="11" t="str">
         <f t="shared" si="5"/>
@@ -6157,10 +5981,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6170,7 +5994,7 @@
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D97" s="11" t="str">
         <f t="shared" si="5"/>
@@ -6180,10 +6004,10 @@
         <v>1</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6193,7 +6017,7 @@
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D98" s="11" t="str">
         <f t="shared" si="5"/>
@@ -6203,10 +6027,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6216,7 +6040,7 @@
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D99" s="11" t="str">
         <f t="shared" ref="D99:D125" si="7">TEXT(C99,"aaa")</f>
@@ -6226,10 +6050,10 @@
         <v>1</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6239,7 +6063,7 @@
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D100" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6249,10 +6073,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6262,7 +6086,7 @@
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D101" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6272,10 +6096,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6285,7 +6109,7 @@
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D102" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6295,10 +6119,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6308,7 +6132,7 @@
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D103" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6318,10 +6142,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6331,7 +6155,7 @@
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D104" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6341,10 +6165,10 @@
         <v>1</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6354,7 +6178,7 @@
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D105" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6364,10 +6188,10 @@
         <v>1</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6377,7 +6201,7 @@
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D106" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6387,10 +6211,10 @@
         <v>1</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6400,7 +6224,7 @@
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D107" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6410,10 +6234,10 @@
         <v>1</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6423,7 +6247,7 @@
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D108" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6433,10 +6257,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6446,7 +6270,7 @@
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D109" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6456,10 +6280,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6469,7 +6293,7 @@
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D110" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6479,10 +6303,10 @@
         <v>1</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6492,7 +6316,7 @@
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D111" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6502,10 +6326,10 @@
         <v>1</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6515,7 +6339,7 @@
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D112" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6525,10 +6349,10 @@
         <v>1</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6538,7 +6362,7 @@
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D113" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6548,10 +6372,10 @@
         <v>1</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6561,7 +6385,7 @@
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D114" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6571,10 +6395,10 @@
         <v>1</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6584,7 +6408,7 @@
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D115" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6594,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6607,7 +6431,7 @@
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D116" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6617,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6630,7 +6454,7 @@
       </c>
       <c r="B117" s="12"/>
       <c r="C117" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D117" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6640,10 +6464,10 @@
         <v>1</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6653,7 +6477,7 @@
       </c>
       <c r="B118" s="12"/>
       <c r="C118" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D118" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6663,10 +6487,10 @@
         <v>1</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6676,7 +6500,7 @@
       </c>
       <c r="B119" s="12"/>
       <c r="C119" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D119" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6686,10 +6510,10 @@
         <v>1</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6699,7 +6523,7 @@
       </c>
       <c r="B120" s="12"/>
       <c r="C120" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D120" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6709,10 +6533,10 @@
         <v>1</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6722,7 +6546,7 @@
       </c>
       <c r="B121" s="12"/>
       <c r="C121" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D121" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6732,10 +6556,10 @@
         <v>1</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6745,7 +6569,7 @@
       </c>
       <c r="B122" s="12"/>
       <c r="C122" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D122" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6755,10 +6579,10 @@
         <v>0</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6768,7 +6592,7 @@
       </c>
       <c r="B123" s="12"/>
       <c r="C123" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D123" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6778,10 +6602,10 @@
         <v>0</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6791,7 +6615,7 @@
       </c>
       <c r="B124" s="12"/>
       <c r="C124" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D124" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6801,10 +6625,10 @@
         <v>1</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6814,7 +6638,7 @@
       </c>
       <c r="B125" s="12"/>
       <c r="C125" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D125" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6824,10 +6648,10 @@
         <v>1</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6843,7 +6667,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A4"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6857,13 +6681,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>229</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>230</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>54</v>
@@ -6874,13 +6698,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>55</v>
@@ -6892,43 +6716,43 @@
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="str">
         <f>"INSERT INTO COMPANY_MT ("&amp;$B$2&amp;", "&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;") VALUES ('"&amp;$B3&amp;"', '"&amp;$C3&amp;"', '"&amp;$D3&amp;"', '"&amp;$E3&amp;"', '"&amp;$F3&amp;"');"</f>
-        <v>INSERT INTO COMPANY_MT (COMPANY_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99999', 'テスト用企業', '0', '2023/09/12 13:29:19', '2023/09/12 13:29:19');</v>
+        <v>INSERT INTO COMPANY_MT (COMPANY_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99999', 'テスト用企業1', '0', '2023/09/12 13:29:19', '2023/09/12 13:29:19');</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D3" s="21">
         <v>0</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="str">
         <f>"INSERT INTO COMPANY_MT ("&amp;$B$2&amp;", "&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;") VALUES ('"&amp;$B4&amp;"', '"&amp;$C4&amp;"', '"&amp;$D4&amp;"', '"&amp;$E4&amp;"', '"&amp;$F4&amp;"');"</f>
-        <v>INSERT INTO COMPANY_MT (COMPANY_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99998', 'テスト用企業', '0', '2023/09/12 13:29:19', '2023/09/12 13:29:19');</v>
+        <v>INSERT INTO COMPANY_MT (COMPANY_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99998', 'テスト用企業2', '0', '2023/09/12 13:29:19', '2023/09/12 13:29:19');</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D4" s="21">
         <v>0</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -7791,7 +7615,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7808,7 +7632,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>26</v>
@@ -7822,13 +7646,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>55</v>
@@ -7840,43 +7664,43 @@
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="str">
         <f>"INSERT INTO DIVISION_MT ("&amp;$B$2&amp;", "&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;") VALUES ('"&amp;$B3&amp;"', '"&amp;$C3&amp;"', '"&amp;$D3&amp;"', '"&amp;$E3&amp;"', '"&amp;$F3&amp;"');"</f>
-        <v>INSERT INTO DIVISION_MT (DIVISION_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99999', 'テスト用部署', '0', '2023/09/12 13:30:08', '2023/09/12 13:30:08');</v>
+        <v>INSERT INTO DIVISION_MT (DIVISION_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99999', 'テスト用部署1', '0', '2023/09/12 13:30:08', '2023/09/12 13:30:08');</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D3" s="21">
         <v>0</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="str">
         <f>"INSERT INTO DIVISION_MT ("&amp;$B$2&amp;", "&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;") VALUES ('"&amp;$B4&amp;"', '"&amp;$C4&amp;"', '"&amp;$D4&amp;"', '"&amp;$E4&amp;"', '"&amp;$F4&amp;"');"</f>
-        <v>INSERT INTO DIVISION_MT (DIVISION_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99998', 'テスト用部署', '0', '2023/09/12 13:30:08', '2023/09/12 13:30:08');</v>
+        <v>INSERT INTO DIVISION_MT (DIVISION_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99998', 'テスト用部署2', '0', '2023/09/12 13:30:08', '2023/09/12 13:30:08');</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D4" s="21">
         <v>0</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">

--- a/docs/テーブル仕様.xlsx
+++ b/docs/テーブル仕様.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA2A09B-C6E1-4586-A1C3-5D4E328B05C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5191EDA-35E8-40E0-BEEF-59947F45FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
+    <workbookView xWindow="465" yWindow="450" windowWidth="25095" windowHeight="14625" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
   </bookViews>
   <sheets>
     <sheet name="DB定義" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="254">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -194,10 +194,6 @@
   </si>
   <si>
     <t>BOOLEAN</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>デフォルト=FALSE</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -326,10 +322,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>8時間半の場合、8.5</t>
     <rPh sb="1" eb="3">
       <t>ジカン</t>
@@ -578,10 +570,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>デフォルト=TRUE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>DATETIME</t>
   </si>
   <si>
@@ -1105,6 +1093,40 @@
   </si>
   <si>
     <t>テスト用部署2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休憩時間</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REST_TIME</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(4.2)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>デフォルト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0.00</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1336,7 +1358,27 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1622,22 +1664,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7A424B-431B-4665-B0EB-34E65E79D84A}" name="テーブル1" displayName="テーブル1" ref="A1:K65" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K65" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A1F5D4FD-5A7B-45B6-8985-049D58F35E49}" name="#" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7A424B-431B-4665-B0EB-34E65E79D84A}" name="テーブル1" displayName="テーブル1" ref="A1:L66" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L66" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{A1F5D4FD-5A7B-45B6-8985-049D58F35E49}" name="#" dataDxfId="11">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{09FC8B41-3625-414C-AE3B-FA3C18DEC0E0}" name="テーブル（論理名）" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6D82D160-DE7E-40BF-AC2C-86F5D9A215E3}" name="テーブル名（物理名）" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{4FB4AD4B-588D-4E2A-955A-1A40E05CD2B4}" name="カラム名（論理名）" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{853A0B61-6F64-4F47-A98D-15D4FA721C6A}" name="カラム名（物理名）" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{32B3F001-99F9-490B-AC9F-492BDD74B0E6}" name="シーケンス" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{4606B213-9ADF-48EE-9CE3-9623865A1CDD}" name="Pキー" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{86D0116E-4D9E-4008-838E-061CA040A547}" name="必須" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{51863AB7-78F8-4E1B-8C6E-31D34AB5A5FC}" name="型" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2E6DF604-604A-4318-918F-AC4DE8D16C0A}" name="サイズ" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{10DF7291-42CA-44AC-BF51-1E8064E96987}" name="備考" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{09FC8B41-3625-414C-AE3B-FA3C18DEC0E0}" name="テーブル（論理名）" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{6D82D160-DE7E-40BF-AC2C-86F5D9A215E3}" name="テーブル名（物理名）" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{4FB4AD4B-588D-4E2A-955A-1A40E05CD2B4}" name="カラム名（論理名）" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{853A0B61-6F64-4F47-A98D-15D4FA721C6A}" name="カラム名（物理名）" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{32B3F001-99F9-490B-AC9F-492BDD74B0E6}" name="シーケンス" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{4606B213-9ADF-48EE-9CE3-9623865A1CDD}" name="Pキー" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{86D0116E-4D9E-4008-838E-061CA040A547}" name="必須" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{51863AB7-78F8-4E1B-8C6E-31D34AB5A5FC}" name="型" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{2E6DF604-604A-4318-918F-AC4DE8D16C0A}" name="サイズ" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{FD0BD906-9B41-4E53-AEFA-6BCD4E80046E}" name="デフォルト" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{10DF7291-42CA-44AC-BF51-1E8064E96987}" name="備考" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1943,11 +1986,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K54" sqref="K54:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1962,11 +2005,12 @@
     <col min="8" max="8" width="9.5" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.25" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="11" max="11" width="10.375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="40.375" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1998,10 +2042,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f>ROW()-1</f>
         <v>1</v>
@@ -2032,10 +2079,11 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A65" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2062,8 +2110,9 @@
         <v>19</v>
       </c>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2092,8 +2141,9 @@
         <v>22</v>
       </c>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2122,8 +2172,9 @@
         <v>22</v>
       </c>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2150,10 +2201,11 @@
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>252</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2165,10 +2217,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2176,12 +2228,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2193,10 +2246,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2204,27 +2257,28 @@
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -2240,17 +2294,18 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>13</v>
@@ -2268,17 +2323,18 @@
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>20</v>
@@ -2297,18 +2353,19 @@
       <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K11" s="4"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -2327,24 +2384,25 @@
       <c r="J12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="4"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2352,27 +2410,28 @@
         <v>1</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2380,27 +2439,28 @@
         <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2408,27 +2468,28 @@
         <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -2436,61 +2497,65 @@
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="J16" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2502,81 +2567,86 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>252</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <f>ROW()-1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="J20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2584,89 +2654,88 @@
         <v>1</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
         <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6">
@@ -2679,54 +2748,60 @@
         <v>18</v>
       </c>
       <c r="J24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2734,27 +2809,28 @@
         <v>1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2762,27 +2838,28 @@
         <v>1</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2790,27 +2867,28 @@
         <v>1</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2818,29 +2896,28 @@
         <v>1</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
       <c r="B30" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2848,27 +2925,30 @@
         <v>1</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2876,117 +2956,119 @@
         <v>1</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="6">
-        <v>1</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
       <c r="I33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6">
-        <v>1</v>
-      </c>
+      <c r="H34" s="6"/>
       <c r="I34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2994,27 +3076,30 @@
         <v>1</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K35" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3022,117 +3107,119 @@
         <v>1</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="6">
-        <v>1</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
       <c r="I38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E39" s="6" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="6">
-        <v>1</v>
-      </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -3140,27 +3227,30 @@
         <v>1</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K40" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3168,242 +3258,250 @@
         <v>1</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6">
+        <v>1</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="H43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L44" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" s="3">
-        <f>ROW()-1</f>
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
       <c r="H49" s="4">
         <v>1</v>
       </c>
@@ -3412,23 +3510,24 @@
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -3436,29 +3535,28 @@
         <v>1</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -3469,26 +3567,27 @@
         <v>18</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -3502,51 +3601,55 @@
         <v>22</v>
       </c>
       <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D53" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6">
-        <v>1</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" s="3">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -3554,27 +3657,30 @@
         <v>1</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J54" s="6"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K54" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -3582,28 +3688,42 @@
         <v>1</v>
       </c>
       <c r="I55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56" s="3">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E56" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3618,8 +3738,9 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3634,8 +3755,9 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3650,8 +3772,9 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3666,8 +3789,9 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3682,8 +3806,9 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3698,8 +3823,9 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3714,8 +3840,9 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3730,8 +3857,9 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3746,6 +3874,24 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3753,12 +3899,12 @@
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="7" manualBreakCount="7">
     <brk id="8" max="16383" man="1"/>
-    <brk id="21" max="16383" man="1"/>
-    <brk id="31" max="16383" man="1"/>
-    <brk id="36" max="16383" man="1"/>
-    <brk id="41" max="16383" man="1"/>
-    <brk id="47" max="16383" man="1"/>
-    <brk id="55" max="16383" man="1"/>
+    <brk id="22" max="16383" man="1"/>
+    <brk id="32" max="16383" man="1"/>
+    <brk id="37" max="16383" man="1"/>
+    <brk id="42" max="16383" man="1"/>
+    <brk id="48" max="16383" man="1"/>
+    <brk id="56" max="16383" man="1"/>
   </rowBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3787,42 +3933,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B1" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -3832,7 +3978,7 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D3" s="15" t="str">
         <f t="shared" ref="D3:D34" si="1">TEXT(C3,"aaa")</f>
@@ -3842,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -3855,7 +4001,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3865,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -3878,7 +4024,7 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3888,10 +4034,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -3901,7 +4047,7 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3911,10 +4057,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -3924,7 +4070,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D7" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3934,10 +4080,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -3947,7 +4093,7 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D8" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3957,10 +4103,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -3970,7 +4116,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D9" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3980,10 +4126,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -3993,7 +4139,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D10" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4003,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4016,7 +4162,7 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D11" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4026,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4039,7 +4185,7 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D12" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4049,10 +4195,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4062,7 +4208,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D13" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4072,10 +4218,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4085,7 +4231,7 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D14" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4095,10 +4241,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4108,7 +4254,7 @@
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4118,10 +4264,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4131,7 +4277,7 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D16" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4141,10 +4287,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4154,7 +4300,7 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D17" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4164,10 +4310,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4177,7 +4323,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D18" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4187,10 +4333,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4200,7 +4346,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D19" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4210,10 +4356,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4223,7 +4369,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D20" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4233,10 +4379,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4246,7 +4392,7 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D21" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4256,10 +4402,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4269,7 +4415,7 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D22" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4279,10 +4425,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4292,7 +4438,7 @@
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D23" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4302,10 +4448,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4315,7 +4461,7 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D24" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4325,10 +4471,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4338,7 +4484,7 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D25" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4348,10 +4494,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4361,7 +4507,7 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D26" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4371,10 +4517,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4384,7 +4530,7 @@
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D27" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4394,10 +4540,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4407,7 +4553,7 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D28" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4417,10 +4563,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4430,7 +4576,7 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D29" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4440,10 +4586,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4453,7 +4599,7 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D30" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4463,10 +4609,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4476,7 +4622,7 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D31" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4486,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4499,7 +4645,7 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D32" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4509,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4522,7 +4668,7 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D33" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4532,10 +4678,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4545,7 +4691,7 @@
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D34" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4555,10 +4701,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4568,7 +4714,7 @@
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D35" s="15" t="str">
         <f t="shared" ref="D35:D66" si="3">TEXT(C35,"aaa")</f>
@@ -4578,10 +4724,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4591,7 +4737,7 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D36" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4601,10 +4747,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4614,7 +4760,7 @@
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D37" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4624,10 +4770,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4637,7 +4783,7 @@
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D38" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4647,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4660,7 +4806,7 @@
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D39" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4670,10 +4816,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4683,7 +4829,7 @@
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D40" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4693,10 +4839,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4706,7 +4852,7 @@
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D41" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4716,10 +4862,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4729,7 +4875,7 @@
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D42" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4739,10 +4885,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4752,7 +4898,7 @@
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D43" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4762,10 +4908,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4775,7 +4921,7 @@
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D44" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4785,10 +4931,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4798,7 +4944,7 @@
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D45" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4808,10 +4954,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4821,7 +4967,7 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D46" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4831,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4844,7 +4990,7 @@
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D47" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4854,10 +5000,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4867,7 +5013,7 @@
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D48" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4877,10 +5023,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4890,7 +5036,7 @@
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D49" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4900,10 +5046,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4913,7 +5059,7 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D50" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4923,10 +5069,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4936,7 +5082,7 @@
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D51" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4946,10 +5092,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4959,7 +5105,7 @@
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D52" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4969,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -4982,7 +5128,7 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D53" s="15" t="str">
         <f t="shared" si="3"/>
@@ -4992,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5005,7 +5151,7 @@
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D54" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5015,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5028,7 +5174,7 @@
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5038,10 +5184,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5051,7 +5197,7 @@
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5061,10 +5207,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5074,7 +5220,7 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D57" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5084,10 +5230,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5097,7 +5243,7 @@
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D58" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5107,10 +5253,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5120,7 +5266,7 @@
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D59" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5130,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5143,7 +5289,7 @@
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D60" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5153,10 +5299,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5166,7 +5312,7 @@
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D61" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5176,10 +5322,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5189,7 +5335,7 @@
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D62" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5199,10 +5345,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5212,7 +5358,7 @@
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D63" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5222,10 +5368,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5235,7 +5381,7 @@
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D64" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5245,10 +5391,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5258,7 +5404,7 @@
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D65" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5268,10 +5414,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5281,7 +5427,7 @@
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D66" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5291,10 +5437,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5304,7 +5450,7 @@
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D67" s="15" t="str">
         <f t="shared" ref="D67:D98" si="5">TEXT(C67,"aaa")</f>
@@ -5314,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5327,7 +5473,7 @@
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D68" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5337,10 +5483,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5350,7 +5496,7 @@
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D69" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5360,10 +5506,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5373,7 +5519,7 @@
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D70" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5383,10 +5529,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5396,7 +5542,7 @@
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D71" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5406,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5419,7 +5565,7 @@
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D72" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5429,10 +5575,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5442,7 +5588,7 @@
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D73" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5452,10 +5598,10 @@
         <v>0</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5465,7 +5611,7 @@
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D74" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5475,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5488,7 +5634,7 @@
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D75" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5498,10 +5644,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5511,7 +5657,7 @@
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D76" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5521,10 +5667,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5534,7 +5680,7 @@
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D77" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5544,10 +5690,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5557,7 +5703,7 @@
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D78" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5567,10 +5713,10 @@
         <v>1</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5580,7 +5726,7 @@
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D79" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5590,10 +5736,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5603,7 +5749,7 @@
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D80" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5613,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5626,7 +5772,7 @@
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D81" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5636,10 +5782,10 @@
         <v>0</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5649,7 +5795,7 @@
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D82" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5659,10 +5805,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5672,7 +5818,7 @@
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D83" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5682,10 +5828,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5695,7 +5841,7 @@
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D84" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5705,10 +5851,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5718,7 +5864,7 @@
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D85" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5728,10 +5874,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5741,7 +5887,7 @@
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D86" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5751,10 +5897,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5764,7 +5910,7 @@
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D87" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5774,10 +5920,10 @@
         <v>0</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5787,7 +5933,7 @@
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D88" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5797,10 +5943,10 @@
         <v>0</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5810,7 +5956,7 @@
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D89" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5820,10 +5966,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5833,7 +5979,7 @@
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D90" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5843,10 +5989,10 @@
         <v>1</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5856,7 +6002,7 @@
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D91" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5866,10 +6012,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5879,7 +6025,7 @@
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D92" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5889,10 +6035,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5902,7 +6048,7 @@
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D93" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5912,10 +6058,10 @@
         <v>1</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
@@ -5925,7 +6071,7 @@
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D94" s="11" t="str">
         <f t="shared" si="5"/>
@@ -5935,10 +6081,10 @@
         <v>0</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -5948,7 +6094,7 @@
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D95" s="11" t="str">
         <f t="shared" si="5"/>
@@ -5958,10 +6104,10 @@
         <v>0</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -5971,7 +6117,7 @@
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D96" s="11" t="str">
         <f t="shared" si="5"/>
@@ -5981,10 +6127,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -5994,7 +6140,7 @@
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D97" s="11" t="str">
         <f t="shared" si="5"/>
@@ -6004,10 +6150,10 @@
         <v>1</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6017,7 +6163,7 @@
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D98" s="11" t="str">
         <f t="shared" si="5"/>
@@ -6027,10 +6173,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6040,7 +6186,7 @@
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D99" s="11" t="str">
         <f t="shared" ref="D99:D125" si="7">TEXT(C99,"aaa")</f>
@@ -6050,10 +6196,10 @@
         <v>1</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6063,7 +6209,7 @@
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D100" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6073,10 +6219,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6086,7 +6232,7 @@
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D101" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6096,10 +6242,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6109,7 +6255,7 @@
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D102" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6119,10 +6265,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6132,7 +6278,7 @@
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D103" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6142,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6155,7 +6301,7 @@
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D104" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6165,10 +6311,10 @@
         <v>1</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6178,7 +6324,7 @@
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D105" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6188,10 +6334,10 @@
         <v>1</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6201,7 +6347,7 @@
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D106" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6211,10 +6357,10 @@
         <v>1</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6224,7 +6370,7 @@
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D107" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6234,10 +6380,10 @@
         <v>1</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6247,7 +6393,7 @@
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D108" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6257,10 +6403,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6270,7 +6416,7 @@
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D109" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6280,10 +6426,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6293,7 +6439,7 @@
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D110" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6303,10 +6449,10 @@
         <v>1</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6316,7 +6462,7 @@
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D111" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6326,10 +6472,10 @@
         <v>1</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6339,7 +6485,7 @@
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D112" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6349,10 +6495,10 @@
         <v>1</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6362,7 +6508,7 @@
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D113" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6372,10 +6518,10 @@
         <v>1</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6385,7 +6531,7 @@
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D114" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6395,10 +6541,10 @@
         <v>1</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6408,7 +6554,7 @@
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D115" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6418,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6431,7 +6577,7 @@
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D116" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6441,10 +6587,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6454,7 +6600,7 @@
       </c>
       <c r="B117" s="12"/>
       <c r="C117" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D117" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6464,10 +6610,10 @@
         <v>1</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6477,7 +6623,7 @@
       </c>
       <c r="B118" s="12"/>
       <c r="C118" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D118" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6487,10 +6633,10 @@
         <v>1</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6500,7 +6646,7 @@
       </c>
       <c r="B119" s="12"/>
       <c r="C119" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D119" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6510,10 +6656,10 @@
         <v>1</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6523,7 +6669,7 @@
       </c>
       <c r="B120" s="12"/>
       <c r="C120" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D120" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6533,10 +6679,10 @@
         <v>1</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6546,7 +6692,7 @@
       </c>
       <c r="B121" s="12"/>
       <c r="C121" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D121" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6556,10 +6702,10 @@
         <v>1</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6569,7 +6715,7 @@
       </c>
       <c r="B122" s="12"/>
       <c r="C122" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D122" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6579,10 +6725,10 @@
         <v>0</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6592,7 +6738,7 @@
       </c>
       <c r="B123" s="12"/>
       <c r="C123" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D123" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6602,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6615,7 +6761,7 @@
       </c>
       <c r="B124" s="12"/>
       <c r="C124" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D124" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6625,10 +6771,10 @@
         <v>1</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
@@ -6638,7 +6784,7 @@
       </c>
       <c r="B125" s="12"/>
       <c r="C125" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D125" s="11" t="str">
         <f t="shared" si="7"/>
@@ -6648,10 +6794,10 @@
         <v>1</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6681,36 +6827,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.4">
@@ -6719,19 +6865,19 @@
         <v>INSERT INTO COMPANY_MT (COMPANY_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99999', 'テスト用企業1', '0', '2023/09/12 13:29:19', '2023/09/12 13:29:19');</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D3" s="21">
         <v>0</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.4">
@@ -6740,19 +6886,19 @@
         <v>INSERT INTO COMPANY_MT (COMPANY_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99998', 'テスト用企業2', '0', '2023/09/12 13:29:19', '2023/09/12 13:29:19');</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D4" s="21">
         <v>0</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -7632,33 +7778,33 @@
         <v>23</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.4">
@@ -7667,19 +7813,19 @@
         <v>INSERT INTO DIVISION_MT (DIVISION_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99999', 'テスト用部署1', '0', '2023/09/12 13:30:08', '2023/09/12 13:30:08');</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D3" s="21">
         <v>0</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.4">
@@ -7688,19 +7834,19 @@
         <v>INSERT INTO DIVISION_MT (DIVISION_CD, NAME, DEL_FLG, REG_DATE, UPDATE_DATE) VALUES ('99998', 'テスト用部署2', '0', '2023/09/12 13:30:08', '2023/09/12 13:30:08');</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D4" s="21">
         <v>0</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">

--- a/docs/テーブル仕様.xlsx
+++ b/docs/テーブル仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5191EDA-35E8-40E0-BEEF-59947F45FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F24F0D-83E6-4C84-930A-E23DAA3E3DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="450" windowWidth="25095" windowHeight="14625" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
+    <workbookView xWindow="3750" yWindow="630" windowWidth="25095" windowHeight="14625" activeTab="1" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
   </bookViews>
   <sheets>
     <sheet name="DB定義" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="317">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -1127,6 +1127,201 @@
   </si>
   <si>
     <t>0.00</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2023/11/01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2023/11/02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2023/11/03</t>
+  </si>
+  <si>
+    <t>2023/11/04</t>
+  </si>
+  <si>
+    <t>2023/11/05</t>
+  </si>
+  <si>
+    <t>2023/11/06</t>
+  </si>
+  <si>
+    <t>2023/11/07</t>
+  </si>
+  <si>
+    <t>2023/11/08</t>
+  </si>
+  <si>
+    <t>2023/11/09</t>
+  </si>
+  <si>
+    <t>2023/11/10</t>
+  </si>
+  <si>
+    <t>2023/11/11</t>
+  </si>
+  <si>
+    <t>2023/11/12</t>
+  </si>
+  <si>
+    <t>2023/11/13</t>
+  </si>
+  <si>
+    <t>2023/11/14</t>
+  </si>
+  <si>
+    <t>2023/11/15</t>
+  </si>
+  <si>
+    <t>2023/11/16</t>
+  </si>
+  <si>
+    <t>2023/11/17</t>
+  </si>
+  <si>
+    <t>2023/11/18</t>
+  </si>
+  <si>
+    <t>2023/11/19</t>
+  </si>
+  <si>
+    <t>2023/11/20</t>
+  </si>
+  <si>
+    <t>2023/11/21</t>
+  </si>
+  <si>
+    <t>2023/11/22</t>
+  </si>
+  <si>
+    <t>2023/11/23</t>
+  </si>
+  <si>
+    <t>2023/11/24</t>
+  </si>
+  <si>
+    <t>2023/11/25</t>
+  </si>
+  <si>
+    <t>2023/11/26</t>
+  </si>
+  <si>
+    <t>2023/11/27</t>
+  </si>
+  <si>
+    <t>2023/11/28</t>
+  </si>
+  <si>
+    <t>2023/11/29</t>
+  </si>
+  <si>
+    <t>2023/11/30</t>
+  </si>
+  <si>
+    <t>2023/12/01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2023/12/02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2023/12/03</t>
+  </si>
+  <si>
+    <t>2023/12/04</t>
+  </si>
+  <si>
+    <t>2023/12/05</t>
+  </si>
+  <si>
+    <t>2023/12/06</t>
+  </si>
+  <si>
+    <t>2023/12/07</t>
+  </si>
+  <si>
+    <t>2023/12/08</t>
+  </si>
+  <si>
+    <t>2023/12/09</t>
+  </si>
+  <si>
+    <t>2023/12/10</t>
+  </si>
+  <si>
+    <t>2023/12/11</t>
+  </si>
+  <si>
+    <t>2023/12/12</t>
+  </si>
+  <si>
+    <t>2023/12/13</t>
+  </si>
+  <si>
+    <t>2023/12/14</t>
+  </si>
+  <si>
+    <t>2023/12/15</t>
+  </si>
+  <si>
+    <t>2023/12/16</t>
+  </si>
+  <si>
+    <t>2023/12/17</t>
+  </si>
+  <si>
+    <t>2023/12/18</t>
+  </si>
+  <si>
+    <t>2023/12/19</t>
+  </si>
+  <si>
+    <t>2023/12/20</t>
+  </si>
+  <si>
+    <t>2023/12/21</t>
+  </si>
+  <si>
+    <t>2023/12/22</t>
+  </si>
+  <si>
+    <t>2023/12/23</t>
+  </si>
+  <si>
+    <t>2023/12/24</t>
+  </si>
+  <si>
+    <t>2023/12/25</t>
+  </si>
+  <si>
+    <t>2023/12/26</t>
+  </si>
+  <si>
+    <t>2023/12/27</t>
+  </si>
+  <si>
+    <t>2023/12/28</t>
+  </si>
+  <si>
+    <t>2023/12/29</t>
+  </si>
+  <si>
+    <t>2023/12/30</t>
+  </si>
+  <si>
+    <t>2023/12/31</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1679,8 +1874,8 @@
     <tableColumn id="10" xr3:uid="{86D0116E-4D9E-4008-838E-061CA040A547}" name="必須" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{51863AB7-78F8-4E1B-8C6E-31D34AB5A5FC}" name="型" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{2E6DF604-604A-4318-918F-AC4DE8D16C0A}" name="サイズ" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{FD0BD906-9B41-4E53-AEFA-6BCD4E80046E}" name="デフォルト" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{10DF7291-42CA-44AC-BF51-1E8064E96987}" name="備考" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{FD0BD906-9B41-4E53-AEFA-6BCD4E80046E}" name="デフォルト" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{10DF7291-42CA-44AC-BF51-1E8064E96987}" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1988,7 +2183,7 @@
   </sheetPr>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K54" sqref="K54:L54"/>
     </sheetView>
@@ -3914,17 +4109,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8747CD4B-0AAB-43D3-B437-E8610E414875}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="62.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
@@ -6181,7 +6376,7 @@
     </row>
     <row r="99" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A99" s="13" t="str">
-        <f t="shared" ref="A99:A125" si="6">"INSERT INTO BUSINESS_CALENDAR_MT ("&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;") VALUES ('"&amp;$C99&amp;"', '"&amp;$D99&amp;"', '"&amp;$E99&amp;"', '"&amp;$F99&amp;"', '"&amp;$G99&amp;"');"</f>
+        <f t="shared" ref="A99:A162" si="6">"INSERT INTO BUSINESS_CALENDAR_MT ("&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;") VALUES ('"&amp;$C99&amp;"', '"&amp;$D99&amp;"', '"&amp;$E99&amp;"', '"&amp;$F99&amp;"', '"&amp;$G99&amp;"');"</f>
         <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/10/05', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
       </c>
       <c r="B99" s="12"/>
@@ -6797,6 +6992,1409 @@
         <v>94</v>
       </c>
       <c r="G125" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A126" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/01', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B126" s="12"/>
+      <c r="C126" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D126" s="11" t="str">
+        <f t="shared" ref="D126:D156" si="8">TEXT(C126,"aaa")</f>
+        <v>水</v>
+      </c>
+      <c r="E126" s="10">
+        <v>1</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A127" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/02', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B127" s="12"/>
+      <c r="C127" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D127" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>木</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A128" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/03', '金', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B128" s="12"/>
+      <c r="C128" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D128" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>金</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A129" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/04', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B129" s="12"/>
+      <c r="C129" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D129" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>土</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A130" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/05', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D130" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>日</v>
+      </c>
+      <c r="E130" s="10">
+        <v>0</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A131" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/06', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D131" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>月</v>
+      </c>
+      <c r="E131" s="10">
+        <v>1</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A132" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/07', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B132" s="12"/>
+      <c r="C132" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>火</v>
+      </c>
+      <c r="E132" s="10">
+        <v>1</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A133" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/08', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B133" s="12"/>
+      <c r="C133" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D133" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>水</v>
+      </c>
+      <c r="E133" s="10">
+        <v>1</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A134" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/09', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B134" s="12"/>
+      <c r="C134" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D134" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>木</v>
+      </c>
+      <c r="E134" s="10">
+        <v>1</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A135" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/10', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B135" s="12"/>
+      <c r="C135" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D135" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>金</v>
+      </c>
+      <c r="E135" s="10">
+        <v>1</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A136" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/11', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D136" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>土</v>
+      </c>
+      <c r="E136" s="10">
+        <v>0</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A137" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/12', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B137" s="12"/>
+      <c r="C137" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D137" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>日</v>
+      </c>
+      <c r="E137" s="10">
+        <v>0</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A138" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/13', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B138" s="12"/>
+      <c r="C138" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D138" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>月</v>
+      </c>
+      <c r="E138" s="10">
+        <v>1</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A139" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/14', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D139" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>火</v>
+      </c>
+      <c r="E139" s="10">
+        <v>1</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A140" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/15', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B140" s="12"/>
+      <c r="C140" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D140" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>水</v>
+      </c>
+      <c r="E140" s="10">
+        <v>1</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A141" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/16', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B141" s="12"/>
+      <c r="C141" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D141" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>木</v>
+      </c>
+      <c r="E141" s="10">
+        <v>1</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A142" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/17', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B142" s="12"/>
+      <c r="C142" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D142" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>金</v>
+      </c>
+      <c r="E142" s="10">
+        <v>1</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A143" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/18', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B143" s="12"/>
+      <c r="C143" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D143" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>土</v>
+      </c>
+      <c r="E143" s="10">
+        <v>0</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A144" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/19', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B144" s="12"/>
+      <c r="C144" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D144" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>日</v>
+      </c>
+      <c r="E144" s="10">
+        <v>0</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A145" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/20', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B145" s="12"/>
+      <c r="C145" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D145" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>月</v>
+      </c>
+      <c r="E145" s="10">
+        <v>1</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A146" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/21', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B146" s="12"/>
+      <c r="C146" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D146" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>火</v>
+      </c>
+      <c r="E146" s="10">
+        <v>1</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A147" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/22', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B147" s="12"/>
+      <c r="C147" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D147" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>水</v>
+      </c>
+      <c r="E147" s="10">
+        <v>1</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A148" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/23', '木', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B148" s="12"/>
+      <c r="C148" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D148" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>木</v>
+      </c>
+      <c r="E148" s="10">
+        <v>0</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A149" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/24', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B149" s="12"/>
+      <c r="C149" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D149" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>金</v>
+      </c>
+      <c r="E149" s="10">
+        <v>1</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A150" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/25', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B150" s="12"/>
+      <c r="C150" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D150" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>土</v>
+      </c>
+      <c r="E150" s="10">
+        <v>0</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A151" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/26', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B151" s="12"/>
+      <c r="C151" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D151" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>日</v>
+      </c>
+      <c r="E151" s="10">
+        <v>0</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A152" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/27', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B152" s="12"/>
+      <c r="C152" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D152" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>月</v>
+      </c>
+      <c r="E152" s="10">
+        <v>1</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A153" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/28', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B153" s="12"/>
+      <c r="C153" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D153" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>火</v>
+      </c>
+      <c r="E153" s="10">
+        <v>1</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A154" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/29', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B154" s="12"/>
+      <c r="C154" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D154" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>水</v>
+      </c>
+      <c r="E154" s="10">
+        <v>1</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A155" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/11/30', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B155" s="12"/>
+      <c r="C155" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D155" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>木</v>
+      </c>
+      <c r="E155" s="10">
+        <v>1</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A156" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/01', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B156" s="12"/>
+      <c r="C156" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D156" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>金</v>
+      </c>
+      <c r="E156" s="10">
+        <v>1</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A157" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/02', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B157" s="12"/>
+      <c r="C157" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D157" s="11" t="str">
+        <f t="shared" ref="D157:D186" si="9">TEXT(C157,"aaa")</f>
+        <v>土</v>
+      </c>
+      <c r="E157" s="10">
+        <v>0</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A158" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/03', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B158" s="12"/>
+      <c r="C158" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D158" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>日</v>
+      </c>
+      <c r="E158" s="10">
+        <v>0</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A159" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/04', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B159" s="12"/>
+      <c r="C159" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D159" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>月</v>
+      </c>
+      <c r="E159" s="10">
+        <v>1</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A160" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/05', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B160" s="12"/>
+      <c r="C160" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D160" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>火</v>
+      </c>
+      <c r="E160" s="10">
+        <v>1</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A161" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/06', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B161" s="12"/>
+      <c r="C161" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D161" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>水</v>
+      </c>
+      <c r="E161" s="10">
+        <v>1</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A162" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/07', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B162" s="12"/>
+      <c r="C162" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D162" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>木</v>
+      </c>
+      <c r="E162" s="10">
+        <v>1</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A163" s="13" t="str">
+        <f t="shared" ref="A163:A186" si="10">"INSERT INTO BUSINESS_CALENDAR_MT ("&amp;$C$2&amp;", "&amp;$D$2&amp;", "&amp;$E$2&amp;", "&amp;$F$2&amp;", "&amp;$G$2&amp;") VALUES ('"&amp;$C163&amp;"', '"&amp;$D163&amp;"', '"&amp;$E163&amp;"', '"&amp;$F163&amp;"', '"&amp;$G163&amp;"');"</f>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/08', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B163" s="12"/>
+      <c r="C163" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D163" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>金</v>
+      </c>
+      <c r="E163" s="10">
+        <v>1</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A164" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/09', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B164" s="12"/>
+      <c r="C164" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D164" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>土</v>
+      </c>
+      <c r="E164" s="10">
+        <v>0</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A165" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/10', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B165" s="12"/>
+      <c r="C165" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D165" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>日</v>
+      </c>
+      <c r="E165" s="10">
+        <v>0</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A166" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/11', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B166" s="12"/>
+      <c r="C166" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D166" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>月</v>
+      </c>
+      <c r="E166" s="10">
+        <v>1</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A167" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/12', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B167" s="12"/>
+      <c r="C167" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D167" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>火</v>
+      </c>
+      <c r="E167" s="10">
+        <v>1</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A168" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/13', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B168" s="12"/>
+      <c r="C168" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D168" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>水</v>
+      </c>
+      <c r="E168" s="10">
+        <v>1</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A169" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/14', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B169" s="12"/>
+      <c r="C169" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D169" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>木</v>
+      </c>
+      <c r="E169" s="10">
+        <v>1</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A170" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/15', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B170" s="12"/>
+      <c r="C170" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D170" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>金</v>
+      </c>
+      <c r="E170" s="10">
+        <v>1</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G170" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A171" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/16', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D171" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>土</v>
+      </c>
+      <c r="E171" s="10">
+        <v>0</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A172" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/17', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B172" s="12"/>
+      <c r="C172" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D172" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>日</v>
+      </c>
+      <c r="E172" s="10">
+        <v>0</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G172" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A173" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/18', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B173" s="12"/>
+      <c r="C173" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D173" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>月</v>
+      </c>
+      <c r="E173" s="10">
+        <v>1</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A174" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/19', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B174" s="12"/>
+      <c r="C174" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D174" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>火</v>
+      </c>
+      <c r="E174" s="10">
+        <v>1</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A175" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/20', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B175" s="12"/>
+      <c r="C175" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D175" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>水</v>
+      </c>
+      <c r="E175" s="10">
+        <v>1</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G175" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A176" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/21', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B176" s="12"/>
+      <c r="C176" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D176" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>木</v>
+      </c>
+      <c r="E176" s="10">
+        <v>1</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A177" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/22', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B177" s="12"/>
+      <c r="C177" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D177" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>金</v>
+      </c>
+      <c r="E177" s="10">
+        <v>1</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G177" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A178" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/23', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B178" s="12"/>
+      <c r="C178" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D178" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>土</v>
+      </c>
+      <c r="E178" s="10">
+        <v>0</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A179" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/24', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B179" s="12"/>
+      <c r="C179" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D179" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>日</v>
+      </c>
+      <c r="E179" s="10">
+        <v>0</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G179" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A180" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/25', '月', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B180" s="12"/>
+      <c r="C180" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D180" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>月</v>
+      </c>
+      <c r="E180" s="10">
+        <v>1</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G180" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A181" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/26', '火', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B181" s="12"/>
+      <c r="C181" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D181" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>火</v>
+      </c>
+      <c r="E181" s="10">
+        <v>1</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G181" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A182" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/27', '水', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B182" s="12"/>
+      <c r="C182" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D182" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>水</v>
+      </c>
+      <c r="E182" s="10">
+        <v>1</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G182" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A183" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/28', '木', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B183" s="12"/>
+      <c r="C183" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D183" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>木</v>
+      </c>
+      <c r="E183" s="10">
+        <v>1</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G183" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A184" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/29', '金', '1', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B184" s="12"/>
+      <c r="C184" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D184" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>金</v>
+      </c>
+      <c r="E184" s="10">
+        <v>1</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A185" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/30', '土', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B185" s="12"/>
+      <c r="C185" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D185" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>土</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G185" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A186" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>INSERT INTO BUSINESS_CALENDAR_MT (DATE, WEEKDAY, BUSINESS_FLG, REG_DATE, UPDATE_DATE) VALUES ('2023/12/31', '日', '0', '2023/9/25 1:11:00', '2023/9/25 1:11:00');</v>
+      </c>
+      <c r="B186" s="12"/>
+      <c r="C186" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D186" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v>日</v>
+      </c>
+      <c r="E186" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G186" s="10" t="s">
         <v>94</v>
       </c>
     </row>

--- a/docs/テーブル仕様.xlsx
+++ b/docs/テーブル仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F24F0D-83E6-4C84-930A-E23DAA3E3DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D704339E-AAA6-4200-AAEC-99F521A49965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="630" windowWidth="25095" windowHeight="14625" activeTab="1" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
+    <workbookView xWindow="1680" yWindow="675" windowWidth="25095" windowHeight="14625" xr2:uid="{C9544FD4-2D3A-44CF-96F9-DB8B3DB7C330}"/>
   </bookViews>
   <sheets>
     <sheet name="DB定義" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="319">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -1322,6 +1322,17 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>残業時間</t>
+    <rPh sb="0" eb="4">
+      <t>ザンギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OVER_TIME</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1859,8 +1870,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7A424B-431B-4665-B0EB-34E65E79D84A}" name="テーブル1" displayName="テーブル1" ref="A1:L66" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L66" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7A424B-431B-4665-B0EB-34E65E79D84A}" name="テーブル1" displayName="テーブル1" ref="A1:L67" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L67" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{A1F5D4FD-5A7B-45B6-8985-049D58F35E49}" name="#" dataDxfId="11">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
@@ -2181,11 +2192,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K54" sqref="K54:L54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2278,7 +2289,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A67" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2737,7 +2748,7 @@
     </row>
     <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2747,24 +2758,22 @@
         <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>317</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="L18" s="6"/>
+        <v>249</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
@@ -2778,10 +2787,10 @@
         <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2799,7 +2808,7 @@
     </row>
     <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2809,26 +2818,28 @@
         <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -2837,23 +2848,23 @@
       <c r="C21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="D21" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
@@ -2867,10 +2878,10 @@
         <v>38</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2890,26 +2901,24 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
         <v>1</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -2927,24 +2936,22 @@
         <v>56</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="6">
         <v>1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
@@ -2957,13 +2964,13 @@
         <v>242</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6">
@@ -2993,20 +3000,24 @@
         <v>61</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
       <c r="H26" s="6">
         <v>1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
@@ -3022,10 +3033,10 @@
         <v>61</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -3051,10 +3062,10 @@
         <v>61</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -3080,10 +3091,10 @@
         <v>61</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -3109,10 +3120,10 @@
         <v>61</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3120,12 +3131,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="6" t="s">
-        <v>252</v>
-      </c>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -3140,10 +3149,10 @@
         <v>61</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -3151,10 +3160,12 @@
         <v>1</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="K31" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -3169,10 +3180,10 @@
         <v>61</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -3192,30 +3203,26 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6">
         <v>1</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
     </row>
@@ -3231,19 +3238,23 @@
         <v>72</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
       <c r="I34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -3260,23 +3271,21 @@
         <v>72</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
+      <c r="H35" s="6"/>
       <c r="I35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6" t="s">
-        <v>252</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -3291,10 +3300,10 @@
         <v>72</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3302,10 +3311,12 @@
         <v>1</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="K36" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -3320,10 +3331,10 @@
         <v>72</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3343,30 +3354,26 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="6">
         <v>1</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
@@ -3382,19 +3389,23 @@
         <v>77</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
       <c r="I39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -3411,23 +3422,21 @@
         <v>77</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="6">
-        <v>1</v>
-      </c>
+      <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6" t="s">
-        <v>252</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -3442,10 +3451,10 @@
         <v>77</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3453,10 +3462,12 @@
         <v>1</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="K41" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -3471,10 +3482,10 @@
         <v>77</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3494,28 +3505,24 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>83</v>
+        <v>55</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6">
+        <v>1</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -3533,24 +3540,26 @@
         <v>80</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="H44" s="6" t="s">
         <v>83</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
@@ -3561,13 +3570,13 @@
         <v>79</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3575,13 +3584,13 @@
         <v>83</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="L45" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
@@ -3595,10 +3604,10 @@
         <v>88</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3611,9 +3620,7 @@
       <c r="J46" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>252</v>
-      </c>
+      <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -3625,13 +3632,13 @@
         <v>79</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3639,10 +3646,14 @@
         <v>83</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -3657,10 +3668,10 @@
         <v>80</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -3674,42 +3685,38 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="B49" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -3719,13 +3726,17 @@
         <v>239</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+        <v>241</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
       <c r="H50" s="4">
         <v>1</v>
       </c>
@@ -3738,7 +3749,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -3748,10 +3759,10 @@
         <v>239</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -3759,11 +3770,9 @@
         <v>1</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
@@ -3779,10 +3788,10 @@
         <v>239</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -3793,7 +3802,7 @@
         <v>18</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -3810,10 +3819,10 @@
         <v>239</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -3840,25 +3849,25 @@
       <c r="C54" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6">
-        <v>1</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="L54" s="6"/>
+      <c r="D54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
@@ -3872,10 +3881,10 @@
         <v>239</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -3883,11 +3892,13 @@
         <v>1</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="4"/>
+      <c r="K55" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
@@ -3901,10 +3912,10 @@
         <v>239</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -3923,16 +3934,28 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
@@ -4088,18 +4111,35 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="7" manualBreakCount="7">
     <brk id="8" max="16383" man="1"/>
-    <brk id="22" max="16383" man="1"/>
-    <brk id="32" max="16383" man="1"/>
-    <brk id="37" max="16383" man="1"/>
-    <brk id="42" max="16383" man="1"/>
-    <brk id="48" max="16383" man="1"/>
-    <brk id="56" max="16383" man="1"/>
+    <brk id="23" max="16383" man="1"/>
+    <brk id="33" max="16383" man="1"/>
+    <brk id="38" max="16383" man="1"/>
+    <brk id="43" max="16383" man="1"/>
+    <brk id="49" max="16383" man="1"/>
+    <brk id="57" max="16383" man="1"/>
   </rowBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -4111,7 +4151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8747CD4B-0AAB-43D3-B437-E8610E414875}">
   <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
